--- a/CEC_txt_to_xlsx/OUTPUTS/D30/CEC2017functions-D30__AGEO2.xlsx
+++ b/CEC_txt_to_xlsx/OUTPUTS/D30/CEC2017functions-D30__AGEO2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
   <si>
     <t>No</t>
   </si>
@@ -34,427 +34,430 @@
     <t>Std</t>
   </si>
   <si>
-    <t>2.45E+9</t>
-  </si>
-  <si>
-    <t>1.49E+5</t>
-  </si>
-  <si>
-    <t>1.58E+2</t>
-  </si>
-  <si>
-    <t>9.41E+1</t>
-  </si>
-  <si>
-    <t>6.37E+0</t>
-  </si>
-  <si>
-    <t>2.37E+2</t>
-  </si>
-  <si>
-    <t>1.02E+2</t>
-  </si>
-  <si>
-    <t>3.46E+3</t>
-  </si>
-  <si>
-    <t>2.87E+3</t>
-  </si>
-  <si>
-    <t>2.29E+3</t>
-  </si>
-  <si>
-    <t>1.73E+7</t>
-  </si>
-  <si>
-    <t>2.93E+7</t>
-  </si>
-  <si>
-    <t>9.27E+4</t>
-  </si>
-  <si>
-    <t>5.72E+4</t>
-  </si>
-  <si>
-    <t>8.67E+2</t>
-  </si>
-  <si>
-    <t>3.88E+2</t>
-  </si>
-  <si>
-    <t>9.34E+5</t>
-  </si>
-  <si>
-    <t>1.37E+5</t>
-  </si>
-  <si>
-    <t>3.13E+2</t>
-  </si>
-  <si>
-    <t>3.50E+2</t>
-  </si>
-  <si>
-    <t>4.34E+2</t>
-  </si>
-  <si>
-    <t>4.96E+2</t>
-  </si>
-  <si>
-    <t>6.04E+2</t>
-  </si>
-  <si>
-    <t>4.89E+2</t>
-  </si>
-  <si>
-    <t>1.25E+3</t>
-  </si>
-  <si>
-    <t>5.36E+2</t>
-  </si>
-  <si>
-    <t>5.73E+2</t>
-  </si>
-  <si>
-    <t>8.30E+2</t>
-  </si>
-  <si>
-    <t>2.79E+5</t>
-  </si>
-  <si>
-    <t>9.37E+9</t>
-  </si>
-  <si>
-    <t>3.26E+5</t>
-  </si>
-  <si>
-    <t>9.39E+2</t>
-  </si>
-  <si>
-    <t>3.05E+2</t>
-  </si>
-  <si>
-    <t>3.92E+1</t>
-  </si>
-  <si>
-    <t>5.83E+2</t>
-  </si>
-  <si>
-    <t>3.19E+2</t>
-  </si>
-  <si>
-    <t>1.49E+4</t>
-  </si>
-  <si>
-    <t>5.09E+3</t>
-  </si>
-  <si>
-    <t>2.67E+4</t>
-  </si>
-  <si>
-    <t>2.23E+9</t>
-  </si>
-  <si>
-    <t>6.67E+9</t>
-  </si>
-  <si>
-    <t>2.75E+7</t>
-  </si>
-  <si>
-    <t>3.22E+9</t>
-  </si>
-  <si>
-    <t>2.13E+3</t>
-  </si>
-  <si>
-    <t>1.59E+3</t>
-  </si>
-  <si>
-    <t>1.62E+8</t>
-  </si>
-  <si>
-    <t>6.68E+9</t>
-  </si>
-  <si>
-    <t>1.75E+3</t>
-  </si>
-  <si>
-    <t>4.81E+2</t>
-  </si>
-  <si>
-    <t>5.86E+3</t>
-  </si>
-  <si>
-    <t>9.14E+2</t>
-  </si>
-  <si>
-    <t>9.66E+2</t>
-  </si>
-  <si>
-    <t>1.21E+3</t>
-  </si>
-  <si>
-    <t>4.59E+3</t>
-  </si>
-  <si>
-    <t>7.19E+2</t>
-  </si>
-  <si>
-    <t>1.50E+3</t>
-  </si>
-  <si>
-    <t>1.85E+3</t>
-  </si>
-  <si>
-    <t>2.26E+8</t>
-  </si>
-  <si>
-    <t>5.03E+9</t>
-  </si>
-  <si>
-    <t>2.18E+5</t>
-  </si>
-  <si>
-    <t>4.21E+2</t>
-  </si>
-  <si>
-    <t>1.97E+2</t>
-  </si>
-  <si>
-    <t>1.49E+1</t>
-  </si>
-  <si>
-    <t>3.53E+2</t>
-  </si>
-  <si>
-    <t>1.78E+2</t>
-  </si>
-  <si>
-    <t>9.05E+3</t>
+    <t>1.24E+9</t>
+  </si>
+  <si>
+    <t>8.92E+4</t>
+  </si>
+  <si>
+    <t>1.21E+2</t>
+  </si>
+  <si>
+    <t>7.60E+1</t>
+  </si>
+  <si>
+    <t>4.43E+0</t>
+  </si>
+  <si>
+    <t>1.63E+2</t>
+  </si>
+  <si>
+    <t>9.25E+1</t>
+  </si>
+  <si>
+    <t>1.78E+3</t>
+  </si>
+  <si>
+    <t>2.50E+3</t>
+  </si>
+  <si>
+    <t>1.07E+3</t>
+  </si>
+  <si>
+    <t>4.68E+7</t>
+  </si>
+  <si>
+    <t>9.32E+6</t>
+  </si>
+  <si>
+    <t>1.13E+5</t>
+  </si>
+  <si>
+    <t>1.58E+4</t>
+  </si>
+  <si>
+    <t>6.46E+2</t>
+  </si>
+  <si>
+    <t>2.28E+2</t>
+  </si>
+  <si>
+    <t>2.06E+5</t>
+  </si>
+  <si>
+    <t>7.53E+3</t>
+  </si>
+  <si>
+    <t>3.55E+2</t>
+  </si>
+  <si>
+    <t>2.71E+2</t>
+  </si>
+  <si>
+    <t>5.02E+2</t>
+  </si>
+  <si>
+    <t>3.82E+2</t>
+  </si>
+  <si>
+    <t>6.05E+2</t>
+  </si>
+  <si>
+    <t>4.64E+2</t>
+  </si>
+  <si>
+    <t>1.04E+3</t>
+  </si>
+  <si>
+    <t>5.17E+2</t>
+  </si>
+  <si>
+    <t>5.71E+2</t>
+  </si>
+  <si>
+    <t>6.06E+2</t>
+  </si>
+  <si>
+    <t>2.17E+4</t>
+  </si>
+  <si>
+    <t>1.26E+10</t>
+  </si>
+  <si>
+    <t>3.06E+5</t>
+  </si>
+  <si>
+    <t>8.80E+2</t>
+  </si>
+  <si>
+    <t>2.46E+2</t>
+  </si>
+  <si>
+    <t>2.06E+1</t>
+  </si>
+  <si>
+    <t>4.31E+2</t>
+  </si>
+  <si>
+    <t>2.23E+2</t>
+  </si>
+  <si>
+    <t>1.44E+4</t>
+  </si>
+  <si>
+    <t>4.57E+3</t>
+  </si>
+  <si>
+    <t>2.97E+4</t>
+  </si>
+  <si>
+    <t>3.39E+9</t>
+  </si>
+  <si>
+    <t>7.28E+9</t>
+  </si>
+  <si>
+    <t>6.13E+7</t>
+  </si>
+  <si>
+    <t>3.63E+9</t>
+  </si>
+  <si>
+    <t>1.94E+3</t>
+  </si>
+  <si>
+    <t>1.54E+3</t>
+  </si>
+  <si>
+    <t>7.21E+7</t>
+  </si>
+  <si>
+    <t>2.48E+9</t>
+  </si>
+  <si>
+    <t>1.29E+3</t>
+  </si>
+  <si>
+    <t>4.23E+2</t>
+  </si>
+  <si>
+    <t>5.71E+3</t>
+  </si>
+  <si>
+    <t>5.84E+2</t>
+  </si>
+  <si>
+    <t>9.74E+2</t>
+  </si>
+  <si>
+    <t>1.23E+3</t>
+  </si>
+  <si>
+    <t>4.17E+3</t>
+  </si>
+  <si>
+    <t>6.54E+2</t>
+  </si>
+  <si>
+    <t>1.92E+3</t>
+  </si>
+  <si>
+    <t>1.74E+3</t>
+  </si>
+  <si>
+    <t>5.33E+8</t>
+  </si>
+  <si>
+    <t>3.92E+9</t>
+  </si>
+  <si>
+    <t>1.93E+5</t>
+  </si>
+  <si>
+    <t>3.42E+2</t>
+  </si>
+  <si>
+    <t>1.50E+2</t>
+  </si>
+  <si>
+    <t>1.04E+1</t>
+  </si>
+  <si>
+    <t>2.77E+2</t>
+  </si>
+  <si>
+    <t>5.38E+3</t>
+  </si>
+  <si>
+    <t>3.61E+3</t>
+  </si>
+  <si>
+    <t>1.16E+4</t>
+  </si>
+  <si>
+    <t>4.34E+8</t>
+  </si>
+  <si>
+    <t>7.32E+8</t>
+  </si>
+  <si>
+    <t>3.91E+6</t>
+  </si>
+  <si>
+    <t>1.08E+8</t>
+  </si>
+  <si>
+    <t>1.43E+3</t>
+  </si>
+  <si>
+    <t>7.70E+2</t>
+  </si>
+  <si>
+    <t>4.16E+6</t>
+  </si>
+  <si>
+    <t>1.43E+8</t>
+  </si>
+  <si>
+    <t>7.26E+2</t>
+  </si>
+  <si>
+    <t>3.43E+2</t>
   </si>
   <si>
     <t>4.06E+3</t>
   </si>
   <si>
-    <t>1.29E+4</t>
-  </si>
-  <si>
-    <t>3.95E+8</t>
-  </si>
-  <si>
-    <t>7.06E+8</t>
-  </si>
-  <si>
-    <t>6.81E+6</t>
-  </si>
-  <si>
-    <t>1.46E+8</t>
-  </si>
-  <si>
-    <t>1.66E+3</t>
-  </si>
-  <si>
-    <t>1.01E+3</t>
-  </si>
-  <si>
-    <t>1.79E+7</t>
-  </si>
-  <si>
-    <t>3.25E+8</t>
-  </si>
-  <si>
-    <t>1.12E+3</t>
-  </si>
-  <si>
-    <t>4.08E+2</t>
-  </si>
-  <si>
-    <t>4.66E+3</t>
-  </si>
-  <si>
-    <t>5.57E+2</t>
-  </si>
-  <si>
-    <t>7.94E+2</t>
-  </si>
-  <si>
-    <t>6.37E+2</t>
-  </si>
-  <si>
-    <t>5.98E+2</t>
-  </si>
-  <si>
-    <t>8.33E+2</t>
-  </si>
-  <si>
-    <t>1.28E+3</t>
-  </si>
-  <si>
-    <t>5.29E+7</t>
-  </si>
-  <si>
-    <t>5.25E+9</t>
-  </si>
-  <si>
-    <t>2.24E+5</t>
-  </si>
-  <si>
-    <t>4.52E+2</t>
-  </si>
-  <si>
-    <t>1.98E+2</t>
-  </si>
-  <si>
-    <t>1.69E+1</t>
-  </si>
-  <si>
-    <t>3.47E+2</t>
-  </si>
-  <si>
-    <t>1.91E+2</t>
-  </si>
-  <si>
-    <t>8.97E+3</t>
-  </si>
-  <si>
-    <t>1.35E+4</t>
-  </si>
-  <si>
-    <t>6.14E+8</t>
-  </si>
-  <si>
-    <t>1.88E+9</t>
-  </si>
-  <si>
-    <t>7.69E+6</t>
-  </si>
-  <si>
-    <t>3.92E+8</t>
-  </si>
-  <si>
-    <t>1.63E+3</t>
-  </si>
-  <si>
-    <t>9.29E+2</t>
-  </si>
-  <si>
-    <t>2.97E+7</t>
-  </si>
-  <si>
-    <t>7.08E+8</t>
-  </si>
-  <si>
-    <t>9.86E+2</t>
-  </si>
-  <si>
-    <t>4.10E+2</t>
-  </si>
-  <si>
-    <t>4.52E+3</t>
-  </si>
-  <si>
-    <t>5.80E+2</t>
-  </si>
-  <si>
-    <t>7.93E+2</t>
-  </si>
-  <si>
-    <t>6.96E+2</t>
-  </si>
-  <si>
-    <t>3.29E+3</t>
-  </si>
-  <si>
-    <t>8.77E+2</t>
-  </si>
-  <si>
-    <t>1.30E+3</t>
-  </si>
-  <si>
-    <t>6.68E+7</t>
-  </si>
-  <si>
-    <t>1.73E+9</t>
-  </si>
-  <si>
-    <t>5.15E+4</t>
-  </si>
-  <si>
-    <t>1.69E+2</t>
-  </si>
-  <si>
-    <t>5.15E+1</t>
-  </si>
-  <si>
-    <t>7.85E+0</t>
-  </si>
-  <si>
-    <t>8.57E+1</t>
-  </si>
-  <si>
-    <t>4.61E+1</t>
-  </si>
-  <si>
-    <t>3.16E+3</t>
-  </si>
-  <si>
-    <t>5.30E+2</t>
-  </si>
-  <si>
-    <t>6.51E+3</t>
-  </si>
-  <si>
-    <t>6.29E+8</t>
-  </si>
-  <si>
-    <t>2.02E+9</t>
-  </si>
-  <si>
-    <t>6.62E+6</t>
-  </si>
-  <si>
-    <t>6.52E+8</t>
-  </si>
-  <si>
-    <t>3.15E+2</t>
-  </si>
-  <si>
-    <t>3.52E+7</t>
-  </si>
-  <si>
-    <t>1.28E+9</t>
-  </si>
-  <si>
-    <t>3.58E+2</t>
-  </si>
-  <si>
-    <t>3.20E+1</t>
-  </si>
-  <si>
-    <t>9.62E+2</t>
-  </si>
-  <si>
-    <t>8.18E+1</t>
-  </si>
-  <si>
-    <t>9.75E+1</t>
-  </si>
-  <si>
-    <t>1.90E+2</t>
-  </si>
-  <si>
-    <t>9.20E+2</t>
-  </si>
-  <si>
-    <t>4.48E+1</t>
-  </si>
-  <si>
-    <t>2.30E+2</t>
-  </si>
-  <si>
-    <t>2.57E+2</t>
-  </si>
-  <si>
-    <t>6.53E+7</t>
+    <t>5.05E+2</t>
+  </si>
+  <si>
+    <t>7.20E+2</t>
+  </si>
+  <si>
+    <t>6.30E+2</t>
+  </si>
+  <si>
+    <t>2.72E+3</t>
+  </si>
+  <si>
+    <t>5.76E+2</t>
+  </si>
+  <si>
+    <t>8.38E+2</t>
+  </si>
+  <si>
+    <t>1.10E+3</t>
+  </si>
+  <si>
+    <t>4.81E+7</t>
+  </si>
+  <si>
+    <t>4.22E+9</t>
+  </si>
+  <si>
+    <t>1.95E+5</t>
+  </si>
+  <si>
+    <t>3.80E+2</t>
+  </si>
+  <si>
+    <t>1.53E+2</t>
+  </si>
+  <si>
+    <t>1.06E+1</t>
+  </si>
+  <si>
+    <t>2.80E+2</t>
+  </si>
+  <si>
+    <t>1.51E+2</t>
+  </si>
+  <si>
+    <t>6.08E+3</t>
+  </si>
+  <si>
+    <t>3.63E+3</t>
+  </si>
+  <si>
+    <t>1.19E+4</t>
+  </si>
+  <si>
+    <t>6.58E+8</t>
+  </si>
+  <si>
+    <t>1.52E+9</t>
+  </si>
+  <si>
+    <t>9.11E+6</t>
+  </si>
+  <si>
+    <t>4.14E+8</t>
+  </si>
+  <si>
+    <t>1.46E+3</t>
+  </si>
+  <si>
+    <t>8.01E+2</t>
+  </si>
+  <si>
+    <t>1.10E+7</t>
+  </si>
+  <si>
+    <t>3.65E+8</t>
+  </si>
+  <si>
+    <t>7.50E+2</t>
+  </si>
+  <si>
+    <t>3.46E+2</t>
+  </si>
+  <si>
+    <t>4.01E+3</t>
+  </si>
+  <si>
+    <t>5.08E+2</t>
+  </si>
+  <si>
+    <t>7.21E+2</t>
+  </si>
+  <si>
+    <t>6.74E+2</t>
+  </si>
+  <si>
+    <t>2.59E+3</t>
+  </si>
+  <si>
+    <t>5.78E+2</t>
+  </si>
+  <si>
+    <t>8.84E+2</t>
+  </si>
+  <si>
+    <t>8.08E+7</t>
+  </si>
+  <si>
+    <t>2.05E+9</t>
+  </si>
+  <si>
+    <t>4.89E+4</t>
+  </si>
+  <si>
+    <t>1.60E+2</t>
+  </si>
+  <si>
+    <t>3.51E+1</t>
+  </si>
+  <si>
+    <t>3.87E+0</t>
+  </si>
+  <si>
+    <t>6.69E+1</t>
+  </si>
+  <si>
+    <t>3.00E+1</t>
+  </si>
+  <si>
+    <t>2.44E+3</t>
+  </si>
+  <si>
+    <t>4.88E+2</t>
+  </si>
+  <si>
+    <t>8.25E+3</t>
+  </si>
+  <si>
+    <t>6.91E+8</t>
+  </si>
+  <si>
+    <t>1.72E+9</t>
+  </si>
+  <si>
+    <t>1.13E+7</t>
+  </si>
+  <si>
+    <t>7.91E+8</t>
+  </si>
+  <si>
+    <t>2.42E+2</t>
+  </si>
+  <si>
+    <t>2.69E+2</t>
+  </si>
+  <si>
+    <t>1.49E+7</t>
+  </si>
+  <si>
+    <t>5.13E+8</t>
+  </si>
+  <si>
+    <t>2.14E+2</t>
+  </si>
+  <si>
+    <t>2.92E+1</t>
+  </si>
+  <si>
+    <t>9.53E+2</t>
+  </si>
+  <si>
+    <t>4.42E+1</t>
+  </si>
+  <si>
+    <t>7.52E+1</t>
+  </si>
+  <si>
+    <t>1.72E+2</t>
+  </si>
+  <si>
+    <t>7.99E+2</t>
+  </si>
+  <si>
+    <t>3.15E+1</t>
+  </si>
+  <si>
+    <t>2.53E+2</t>
+  </si>
+  <si>
+    <t>9.76E+7</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -875,7 +878,7 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -895,7 +898,7 @@
         <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -915,7 +918,7 @@
         <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -935,7 +938,7 @@
         <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -955,7 +958,7 @@
         <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -969,13 +972,13 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -989,13 +992,13 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1009,13 +1012,13 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1029,13 +1032,13 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1049,13 +1052,13 @@
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1069,13 +1072,13 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1089,13 +1092,13 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1109,13 +1112,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1129,13 +1132,13 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1149,13 +1152,13 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1169,13 +1172,13 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1189,13 +1192,13 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1209,13 +1212,13 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1229,13 +1232,13 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1249,13 +1252,13 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1269,13 +1272,13 @@
         <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1289,13 +1292,13 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1309,13 +1312,13 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1329,13 +1332,13 @@
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1352,10 +1355,10 @@
         <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1372,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1392,10 +1395,10 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1412,10 +1415,10 @@
         <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
